--- a/測試用指令.xlsx
+++ b/測試用指令.xlsx
@@ -256,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -290,6 +290,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -595,7 +598,7 @@
   <dimension ref="B2:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.75" x14ac:dyDescent="0.45"/>
@@ -969,19 +972,19 @@
         <v>47</v>
       </c>
       <c r="C22" s="4"/>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="12" t="s">
         <v>52</v>
       </c>
       <c r="I22" s="5"/>

--- a/測試用指令.xlsx
+++ b/測試用指令.xlsx
@@ -106,9 +106,6 @@
 (異常測試)</t>
   </si>
   <si>
-    <t>d_測試用數值資料</t>
-  </si>
-  <si>
     <t>test_file_1</t>
   </si>
   <si>
@@ -190,13 +187,16 @@
   </si>
   <si>
     <t>test 6 個別輸入資料</t>
+  </si>
+  <si>
+    <t>資料輸入範例</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -229,6 +229,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -256,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -289,10 +296,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -598,7 +608,7 @@
   <dimension ref="B2:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.75" x14ac:dyDescent="0.45"/>
@@ -612,10 +622,10 @@
     <row r="2" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B2" s="4"/>
       <c r="C2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>3</v>
@@ -671,31 +681,31 @@
     </row>
     <row r="5" spans="2:9" ht="30" x14ac:dyDescent="0.45">
       <c r="B5" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="7">
         <v>123</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="G5" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="2:9" ht="30" x14ac:dyDescent="0.45">
       <c r="B6" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="7">
@@ -731,11 +741,11 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B8" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -745,29 +755,29 @@
     </row>
     <row r="9" spans="2:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.45">
       <c r="B9" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B10" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -775,7 +785,7 @@
     </row>
     <row r="11" spans="2:9" ht="30" x14ac:dyDescent="0.45">
       <c r="B11" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="7">
@@ -789,7 +799,7 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B12" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="5">
@@ -849,7 +859,7 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B15" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="5">
@@ -869,7 +879,7 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B16" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="5">
@@ -887,7 +897,7 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B17" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="5">
@@ -907,7 +917,7 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B18" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="5">
@@ -927,7 +937,7 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B19" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="5">
@@ -947,7 +957,7 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B20" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -968,31 +978,31 @@
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="2:9" ht="45" x14ac:dyDescent="0.45">
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="12" t="s">
+      <c r="E22" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="F22" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="G22" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="H22" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H22" s="12" t="s">
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B23" s="12"/>
+      <c r="C23" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B23" s="11"/>
-      <c r="C23" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>26</v>
@@ -1043,7 +1053,7 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B27" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -1076,7 +1086,7 @@
         <v>13</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.45">

--- a/測試用指令.xlsx
+++ b/測試用指令.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
   <si>
     <t>請選擇 輸出 模式</t>
   </si>
@@ -60,28 +60,13 @@
     <t>date</t>
   </si>
   <si>
-    <t>elden ring</t>
-  </si>
-  <si>
     <t>entertainment</t>
   </si>
   <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>steam</t>
-  </si>
-  <si>
     <t>restaurant</t>
   </si>
   <si>
-    <t>Takeout</t>
-  </si>
-  <si>
     <t>Rent</t>
-  </si>
-  <si>
-    <t>Rent or Mortgage</t>
   </si>
   <si>
     <t>haha</t>
@@ -117,9 +102,6 @@
 (異常測試)</t>
   </si>
   <si>
-    <t>test_file_2</t>
-  </si>
-  <si>
     <t>test_file_1.csv</t>
   </si>
   <si>
@@ -143,9 +125,6 @@
   <si>
     <t>請輸入欲修改的檔案
 (異常測試)</t>
-  </si>
-  <si>
-    <t>test_file_3</t>
   </si>
   <si>
     <t>請輸入欲修改的檔案</t>
@@ -190,6 +169,51 @@
   </si>
   <si>
     <t>資料輸入範例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_file_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_file_1.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elden ring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>steam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Takeout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rent or Mortgage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>car</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_file_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_file_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -298,11 +322,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -608,7 +632,7 @@
   <dimension ref="B2:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.75" x14ac:dyDescent="0.45"/>
@@ -622,10 +646,10 @@
     <row r="2" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B2" s="4"/>
       <c r="C2" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>3</v>
@@ -643,7 +667,7 @@
     </row>
     <row r="3" spans="2:9" ht="30" x14ac:dyDescent="0.45">
       <c r="B3" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C3" s="7">
         <v>3</v>
@@ -657,7 +681,7 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B4" s="8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C4" s="5">
         <v>0</v>
@@ -681,31 +705,31 @@
     </row>
     <row r="5" spans="2:9" ht="30" x14ac:dyDescent="0.45">
       <c r="B5" s="8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C5" s="7">
         <v>123</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>54</v>
+      <c r="D5" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="2:9" ht="30" x14ac:dyDescent="0.45">
       <c r="B6" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="7">
@@ -741,11 +765,11 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B8" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -755,29 +779,29 @@
     </row>
     <row r="9" spans="2:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.45">
       <c r="B9" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="5" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B10" s="8" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="5" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -785,7 +809,7 @@
     </row>
     <row r="11" spans="2:9" ht="30" x14ac:dyDescent="0.45">
       <c r="B11" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="7">
@@ -799,7 +823,7 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B12" s="8" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="5">
@@ -859,7 +883,7 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B15" s="8" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="5">
@@ -879,7 +903,7 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B16" s="8" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="5">
@@ -897,7 +921,7 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B17" s="8" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="5">
@@ -917,7 +941,7 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B18" s="8" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="5">
@@ -937,7 +961,7 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B19" s="8" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="5">
@@ -957,7 +981,7 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B20" s="8" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -978,46 +1002,46 @@
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="2:9" ht="45" x14ac:dyDescent="0.45">
-      <c r="B22" s="12" t="s">
-        <v>46</v>
+      <c r="B22" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="11" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I22" s="5"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B23" s="12"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="7" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I23" s="5"/>
     </row>
@@ -1053,7 +1077,7 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B27" s="9" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -1086,21 +1110,21 @@
         <v>13</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B29" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="D29" s="5" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="F29" s="5">
         <v>123</v>
@@ -1117,12 +1141,12 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B30" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="5">
@@ -1137,16 +1161,16 @@
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B31" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="5">
@@ -1161,16 +1185,16 @@
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B32" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="5">
@@ -1185,16 +1209,16 @@
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B33" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="5">
